--- a/Section03/Outlier/Comparación.xlsx
+++ b/Section03/Outlier/Comparación.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JLGC\R.LTWB\Section03\Outlier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD5CE58-B009-4646-A44E-3AAA68E2F1D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B53F728-41FF-4D48-A7FF-5549727B5E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="8" xr2:uid="{B949E656-5487-430F-8B70-0BE43441FDEE}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="15600" windowHeight="11160" tabRatio="691" firstSheet="2" activeTab="2" xr2:uid="{B949E656-5487-430F-8B70-0BE43441FDEE}"/>
   </bookViews>
   <sheets>
     <sheet name="P" sheetId="1" r:id="rId1"/>
@@ -18717,8 +18717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11334BE7-6039-4D29-9F71-0A691A49FE65}">
   <dimension ref="A1:I329"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18752,1743 +18752,807 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
-        <v>21185040</v>
+        <v>21195190</v>
       </c>
       <c r="B2" s="4">
-        <v>886</v>
+        <v>5302</v>
       </c>
       <c r="C2" s="4">
-        <v>33.782200000000003</v>
+        <v>54.0593</v>
       </c>
       <c r="D2" s="4">
-        <v>2.1771400000000001</v>
+        <v>93.390100000000004</v>
       </c>
       <c r="E2" s="4">
-        <v>26.6</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4">
-        <v>32.4</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4">
-        <v>33.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4">
-        <v>35.4</v>
+        <v>78</v>
       </c>
       <c r="I2" s="4">
-        <v>40</v>
+        <v>221.429</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
-        <v>21195080</v>
+        <v>21206930</v>
       </c>
       <c r="B3" s="4">
-        <v>299</v>
+        <v>6574</v>
       </c>
       <c r="C3" s="4">
-        <v>33.644799999999996</v>
+        <v>54.090200000000003</v>
       </c>
       <c r="D3" s="4">
-        <v>1.9994000000000001</v>
+        <v>82.277600000000007</v>
       </c>
       <c r="E3" s="4">
-        <v>28.8</v>
+        <v>0</v>
       </c>
       <c r="F3" s="4">
-        <v>32.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4">
-        <v>33.6</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="I3" s="4">
-        <v>40.200000000000003</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
-        <v>21195120</v>
+        <v>21206950</v>
       </c>
       <c r="B4" s="4">
-        <v>8398</v>
+        <v>6194</v>
       </c>
       <c r="C4" s="4">
-        <v>24.883600000000001</v>
+        <v>37.614400000000003</v>
       </c>
       <c r="D4" s="4">
-        <v>1.7075100000000001</v>
+        <v>63.953000000000003</v>
       </c>
       <c r="E4" s="4">
-        <v>18.399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F4" s="4">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H4" s="4">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="I4" s="4">
-        <v>32.5</v>
+        <v>160.363</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <v>21195190</v>
+        <v>21206980</v>
       </c>
       <c r="B5" s="4">
-        <v>11840</v>
+        <v>6463</v>
       </c>
       <c r="C5" s="4">
-        <v>19.625699999999998</v>
+        <v>17.400099999999998</v>
       </c>
       <c r="D5" s="4">
-        <v>1.5644499999999999</v>
+        <v>31.12</v>
       </c>
       <c r="E5" s="4">
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="F5" s="4">
-        <v>18.600000000000001</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4">
-        <v>19.600000000000001</v>
+        <v>0</v>
       </c>
       <c r="H5" s="4">
-        <v>20.399999999999999</v>
+        <v>19</v>
       </c>
       <c r="I5" s="4">
-        <v>26.4</v>
+        <v>83.629300000000001</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <v>21205012</v>
+        <v>21206990</v>
       </c>
       <c r="B6" s="4">
-        <v>375</v>
+        <v>6541</v>
       </c>
       <c r="C6" s="4">
-        <v>19.596</v>
+        <v>67.838300000000004</v>
       </c>
       <c r="D6" s="4">
-        <v>1.5595000000000001</v>
+        <v>104.04</v>
       </c>
       <c r="E6" s="4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F6" s="4">
-        <v>18.399999999999999</v>
+        <v>0</v>
       </c>
       <c r="G6" s="4">
-        <v>19.600000000000001</v>
+        <v>0</v>
       </c>
       <c r="H6" s="4">
-        <v>20.6</v>
+        <v>171</v>
       </c>
       <c r="I6" s="4">
-        <v>24.5</v>
+        <v>426</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <v>21205160</v>
+        <v>21255160</v>
       </c>
       <c r="B7" s="4">
-        <v>2892</v>
+        <v>5938</v>
       </c>
       <c r="C7" s="4">
-        <v>19.877600000000001</v>
+        <v>4.7691800000000004</v>
       </c>
       <c r="D7" s="4">
-        <v>2.31969</v>
+        <v>9.5927199999999999</v>
       </c>
       <c r="E7" s="4">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F7" s="4">
-        <v>18.100000000000001</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4">
-        <v>19.8</v>
+        <v>0</v>
       </c>
       <c r="H7" s="4">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I7" s="4">
-        <v>27.6</v>
+        <v>24.060700000000001</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
-        <v>21205230</v>
+        <v>24015110</v>
       </c>
       <c r="B8" s="4">
-        <v>3815</v>
+        <v>6396</v>
       </c>
       <c r="C8" s="4">
-        <v>19.972899999999999</v>
+        <v>118.626</v>
       </c>
       <c r="D8" s="4">
-        <v>1.58457</v>
+        <v>176.767</v>
       </c>
       <c r="E8" s="4">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4">
-        <v>18.8</v>
+        <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H8" s="4">
-        <v>21</v>
+        <v>281.44099999999997</v>
       </c>
       <c r="I8" s="4">
-        <v>26</v>
+        <v>845</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
-        <v>21205420</v>
+        <v>35035130</v>
       </c>
       <c r="B9" s="4">
-        <v>14725</v>
+        <v>4004</v>
       </c>
       <c r="C9" s="4">
-        <v>19.625299999999999</v>
+        <v>210.05699999999999</v>
       </c>
       <c r="D9" s="4">
-        <v>1.4690700000000001</v>
+        <v>42.629899999999999</v>
       </c>
       <c r="E9" s="4">
-        <v>13.7</v>
+        <v>20</v>
       </c>
       <c r="F9" s="4">
-        <v>18.600000000000001</v>
+        <v>186.64699999999999</v>
       </c>
       <c r="G9" s="4">
-        <v>19.600000000000001</v>
+        <v>218</v>
       </c>
       <c r="H9" s="4">
-        <v>20.6</v>
+        <v>245</v>
       </c>
       <c r="I9" s="4">
-        <v>26</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>21205520</v>
-      </c>
-      <c r="B10" s="4">
-        <v>4872</v>
-      </c>
-      <c r="C10" s="4">
-        <v>19.5169</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1.4191199999999999</v>
-      </c>
-      <c r="E10" s="4">
-        <v>14.1</v>
-      </c>
-      <c r="F10" s="4">
-        <v>18.5</v>
-      </c>
-      <c r="G10" s="4">
-        <v>19.5</v>
-      </c>
-      <c r="H10" s="4">
-        <v>20.5</v>
-      </c>
-      <c r="I10" s="4">
-        <v>25.8</v>
-      </c>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>21205580</v>
-      </c>
-      <c r="B11" s="4">
-        <v>632</v>
-      </c>
-      <c r="C11" s="4">
-        <v>18.629300000000001</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1.79813</v>
-      </c>
-      <c r="E11" s="4">
-        <v>12.2</v>
-      </c>
-      <c r="F11" s="4">
-        <v>17.5</v>
-      </c>
-      <c r="G11" s="4">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="H11" s="4">
-        <v>20</v>
-      </c>
-      <c r="I11" s="4">
-        <v>24.8</v>
-      </c>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>21205660</v>
-      </c>
-      <c r="B12" s="4">
-        <v>12758</v>
-      </c>
-      <c r="C12" s="4">
-        <v>30.2407</v>
-      </c>
-      <c r="D12" s="4">
-        <v>2.0173199999999998</v>
-      </c>
-      <c r="E12" s="4">
-        <v>21.6</v>
-      </c>
-      <c r="F12" s="4">
-        <v>29</v>
-      </c>
-      <c r="G12" s="4">
-        <v>30.2</v>
-      </c>
-      <c r="H12" s="4">
-        <v>31.4</v>
-      </c>
-      <c r="I12" s="4">
-        <v>36.799999999999997</v>
-      </c>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>21205670</v>
-      </c>
-      <c r="B13" s="4">
-        <v>11722</v>
-      </c>
-      <c r="C13" s="4">
-        <v>21.009699999999999</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1.50464</v>
-      </c>
-      <c r="E13" s="4">
-        <v>16</v>
-      </c>
-      <c r="F13" s="4">
-        <v>20</v>
-      </c>
-      <c r="G13" s="4">
-        <v>20.8</v>
-      </c>
-      <c r="H13" s="4">
-        <v>22</v>
-      </c>
-      <c r="I13" s="4">
-        <v>27.6</v>
-      </c>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>21205700</v>
-      </c>
-      <c r="B14" s="4">
-        <v>12635</v>
-      </c>
-      <c r="C14" s="4">
-        <v>18.3627</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1.8833</v>
-      </c>
-      <c r="E14" s="4">
-        <v>12.2</v>
-      </c>
-      <c r="F14" s="4">
-        <v>17</v>
-      </c>
-      <c r="G14" s="4">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="H14" s="4">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="I14" s="4">
-        <v>25.2</v>
-      </c>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>21205710</v>
-      </c>
-      <c r="B15" s="4">
-        <v>11690</v>
-      </c>
-      <c r="C15" s="4">
-        <v>20.347100000000001</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1.5100199999999999</v>
-      </c>
-      <c r="E15" s="4">
-        <v>14</v>
-      </c>
-      <c r="F15" s="4">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="G15" s="4">
-        <v>20.2</v>
-      </c>
-      <c r="H15" s="4">
-        <v>21.4</v>
-      </c>
-      <c r="I15" s="4">
-        <v>26.8</v>
-      </c>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>21205720</v>
-      </c>
-      <c r="B16" s="4">
-        <v>12130</v>
-      </c>
-      <c r="C16" s="4">
-        <v>16.732600000000001</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1.7282599999999999</v>
-      </c>
-      <c r="E16" s="4">
-        <v>9.4</v>
-      </c>
-      <c r="F16" s="4">
-        <v>15.4</v>
-      </c>
-      <c r="G16" s="4">
-        <v>16.8</v>
-      </c>
-      <c r="H16" s="4">
-        <v>18</v>
-      </c>
-      <c r="I16" s="4">
-        <v>24.4</v>
-      </c>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>21205740</v>
-      </c>
-      <c r="B17" s="4">
-        <v>13573</v>
-      </c>
-      <c r="C17" s="4">
-        <v>17.14</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1.95096</v>
-      </c>
-      <c r="E17" s="4">
-        <v>10.8</v>
-      </c>
-      <c r="F17" s="4">
-        <v>15.8</v>
-      </c>
-      <c r="G17" s="4">
-        <v>17.2</v>
-      </c>
-      <c r="H17" s="4">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="I17" s="4">
-        <v>24</v>
-      </c>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>21205750</v>
-      </c>
-      <c r="B18" s="4">
-        <v>176</v>
-      </c>
-      <c r="C18" s="4">
-        <v>19.002800000000001</v>
-      </c>
-      <c r="D18" s="4">
-        <v>1.3436600000000001</v>
-      </c>
-      <c r="E18" s="4">
-        <v>14.2</v>
-      </c>
-      <c r="F18" s="4">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="G18" s="4">
-        <v>18.8</v>
-      </c>
-      <c r="H18" s="4">
-        <v>19.925000000000001</v>
-      </c>
-      <c r="I18" s="4">
-        <v>24</v>
-      </c>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>21205770</v>
-      </c>
-      <c r="B19" s="4">
-        <v>7423</v>
-      </c>
-      <c r="C19" s="4">
-        <v>18.835100000000001</v>
-      </c>
-      <c r="D19" s="4">
-        <v>1.55108</v>
-      </c>
-      <c r="E19" s="4">
-        <v>12.2</v>
-      </c>
-      <c r="F19" s="4">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="G19" s="4">
-        <v>18.8</v>
-      </c>
-      <c r="H19" s="4">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="I19" s="4">
-        <v>25</v>
-      </c>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>21205791</v>
-      </c>
-      <c r="B20" s="4">
-        <v>13122</v>
-      </c>
-      <c r="C20" s="4">
-        <v>19.335799999999999</v>
-      </c>
-      <c r="D20" s="4">
-        <v>1.47377</v>
-      </c>
-      <c r="E20" s="4">
-        <v>13.1</v>
-      </c>
-      <c r="F20" s="4">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="G20" s="4">
-        <v>19.3</v>
-      </c>
-      <c r="H20" s="4">
-        <v>20.3</v>
-      </c>
-      <c r="I20" s="4">
-        <v>24.9</v>
-      </c>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>21205910</v>
-      </c>
-      <c r="B21" s="4">
-        <v>569</v>
-      </c>
-      <c r="C21" s="4">
-        <v>18.323899999999998</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1.7586200000000001</v>
-      </c>
-      <c r="E21" s="4">
-        <v>14.4</v>
-      </c>
-      <c r="F21" s="4">
-        <v>17</v>
-      </c>
-      <c r="G21" s="4">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="H21" s="4">
-        <v>19.2</v>
-      </c>
-      <c r="I21" s="4">
-        <v>24</v>
-      </c>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
-        <v>21205940</v>
-      </c>
-      <c r="B22" s="4">
-        <v>4309</v>
-      </c>
-      <c r="C22" s="4">
-        <v>18.405799999999999</v>
-      </c>
-      <c r="D22" s="4">
-        <v>1.31904</v>
-      </c>
-      <c r="E22" s="4">
-        <v>12.8</v>
-      </c>
-      <c r="F22" s="4">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="G22" s="4">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="H22" s="4">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="I22" s="4">
-        <v>24</v>
-      </c>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
-        <v>21205980</v>
-      </c>
-      <c r="B23" s="4">
-        <v>12730</v>
-      </c>
-      <c r="C23" s="4">
-        <v>19.730399999999999</v>
-      </c>
-      <c r="D23" s="4">
-        <v>1.64828</v>
-      </c>
-      <c r="E23" s="4">
-        <v>12.6</v>
-      </c>
-      <c r="F23" s="4">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="G23" s="4">
-        <v>19.8</v>
-      </c>
-      <c r="H23" s="4">
-        <v>20.8</v>
-      </c>
-      <c r="I23" s="4">
-        <v>25.5</v>
-      </c>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
-        <v>21206050</v>
-      </c>
-      <c r="B24" s="4">
-        <v>7419</v>
-      </c>
-      <c r="C24" s="4">
-        <v>19.789400000000001</v>
-      </c>
-      <c r="D24" s="4">
-        <v>1.87419</v>
-      </c>
-      <c r="E24" s="4">
-        <v>14.4</v>
-      </c>
-      <c r="F24" s="4">
-        <v>18.5</v>
-      </c>
-      <c r="G24" s="4">
-        <v>19.7</v>
-      </c>
-      <c r="H24" s="4">
-        <v>21</v>
-      </c>
-      <c r="I24" s="4">
-        <v>26.6</v>
-      </c>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
-        <v>21206160</v>
-      </c>
-      <c r="B25" s="4">
-        <v>1435</v>
-      </c>
-      <c r="C25" s="4">
-        <v>22.069700000000001</v>
-      </c>
-      <c r="D25" s="4">
-        <v>1.70024</v>
-      </c>
-      <c r="E25" s="4">
-        <v>14.4</v>
-      </c>
-      <c r="F25" s="4">
-        <v>21</v>
-      </c>
-      <c r="G25" s="4">
-        <v>22</v>
-      </c>
-      <c r="H25" s="4">
-        <v>23.2</v>
-      </c>
-      <c r="I25" s="4">
-        <v>28</v>
-      </c>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
-        <v>21206180</v>
-      </c>
-      <c r="B26" s="4">
-        <v>10303</v>
-      </c>
-      <c r="C26" s="4">
-        <v>21.172000000000001</v>
-      </c>
-      <c r="D26" s="4">
-        <v>1.34988</v>
-      </c>
-      <c r="E26" s="4">
-        <v>15.6</v>
-      </c>
-      <c r="F26" s="4">
-        <v>20.2</v>
-      </c>
-      <c r="G26" s="4">
-        <v>21.2</v>
-      </c>
-      <c r="H26" s="4">
-        <v>22.1</v>
-      </c>
-      <c r="I26" s="4">
-        <v>25.6</v>
-      </c>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
-        <v>21206190</v>
-      </c>
-      <c r="B27" s="4">
-        <v>123</v>
-      </c>
-      <c r="C27" s="4">
-        <v>20.338999999999999</v>
-      </c>
-      <c r="D27" s="4">
-        <v>2.0468899999999999</v>
-      </c>
-      <c r="E27" s="4">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="F27" s="4">
-        <v>18.8</v>
-      </c>
-      <c r="G27" s="4">
-        <v>20.2</v>
-      </c>
-      <c r="H27" s="4">
-        <v>22</v>
-      </c>
-      <c r="I27" s="4">
-        <v>25</v>
-      </c>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
-        <v>21206200</v>
-      </c>
-      <c r="B28" s="4">
-        <v>927</v>
-      </c>
-      <c r="C28" s="4">
-        <v>19.623000000000001</v>
-      </c>
-      <c r="D28" s="4">
-        <v>1.4627699999999999</v>
-      </c>
-      <c r="E28" s="4">
-        <v>14.8</v>
-      </c>
-      <c r="F28" s="4">
-        <v>18.5</v>
-      </c>
-      <c r="G28" s="4">
-        <v>19.5</v>
-      </c>
-      <c r="H28" s="4">
-        <v>20.5</v>
-      </c>
-      <c r="I28" s="4">
-        <v>24</v>
-      </c>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
-        <v>21206230</v>
-      </c>
-      <c r="B29" s="4">
-        <v>409</v>
-      </c>
-      <c r="C29" s="4">
-        <v>19.723199999999999</v>
-      </c>
-      <c r="D29" s="4">
-        <v>1.1271100000000001</v>
-      </c>
-      <c r="E29" s="4">
-        <v>15</v>
-      </c>
-      <c r="F29" s="4">
-        <v>19</v>
-      </c>
-      <c r="G29" s="4">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="H29" s="4">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="I29" s="4">
-        <v>23.4</v>
-      </c>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
-        <v>21206260</v>
-      </c>
-      <c r="B30" s="4">
-        <v>9371</v>
-      </c>
-      <c r="C30" s="4">
-        <v>19.575199999999999</v>
-      </c>
-      <c r="D30" s="4">
-        <v>1.5259</v>
-      </c>
-      <c r="E30" s="4">
-        <v>13</v>
-      </c>
-      <c r="F30" s="4">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="G30" s="4">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="H30" s="4">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="I30" s="4">
-        <v>25.8</v>
-      </c>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
-        <v>21206280</v>
-      </c>
-      <c r="B31" s="4">
-        <v>6800</v>
-      </c>
-      <c r="C31" s="4">
-        <v>15.995100000000001</v>
-      </c>
-      <c r="D31" s="4">
-        <v>1.3117099999999999</v>
-      </c>
-      <c r="E31" s="4">
-        <v>11.6</v>
-      </c>
-      <c r="F31" s="4">
-        <v>15</v>
-      </c>
-      <c r="G31" s="4">
-        <v>15.8</v>
-      </c>
-      <c r="H31" s="4">
-        <v>16.8</v>
-      </c>
-      <c r="I31" s="4">
-        <v>21.8</v>
-      </c>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
-        <v>21206500</v>
-      </c>
-      <c r="B32" s="4">
-        <v>1655</v>
-      </c>
-      <c r="C32" s="4">
-        <v>19.547999999999998</v>
-      </c>
-      <c r="D32" s="4">
-        <v>2.0233500000000002</v>
-      </c>
-      <c r="E32" s="4">
-        <v>14.2</v>
-      </c>
-      <c r="F32" s="4">
-        <v>18</v>
-      </c>
-      <c r="G32" s="4">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="H32" s="4">
-        <v>21</v>
-      </c>
-      <c r="I32" s="4">
-        <v>24.8</v>
-      </c>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
-        <v>21206510</v>
-      </c>
-      <c r="B33" s="4">
-        <v>881</v>
-      </c>
-      <c r="C33" s="4">
-        <v>19.3933</v>
-      </c>
-      <c r="D33" s="4">
-        <v>1.6183399999999999</v>
-      </c>
-      <c r="E33" s="4">
-        <v>14.7</v>
-      </c>
-      <c r="F33" s="4">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="G33" s="4">
-        <v>19.3</v>
-      </c>
-      <c r="H33" s="4">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="I33" s="4">
-        <v>25</v>
-      </c>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
-        <v>21206550</v>
-      </c>
-      <c r="B34" s="4">
-        <v>1246</v>
-      </c>
-      <c r="C34" s="4">
-        <v>21.057600000000001</v>
-      </c>
-      <c r="D34" s="4">
-        <v>1.6516599999999999</v>
-      </c>
-      <c r="E34" s="4">
-        <v>15.6</v>
-      </c>
-      <c r="F34" s="4">
-        <v>20</v>
-      </c>
-      <c r="G34" s="4">
-        <v>21</v>
-      </c>
-      <c r="H34" s="4">
-        <v>22</v>
-      </c>
-      <c r="I34" s="4">
-        <v>27</v>
-      </c>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
-        <v>21206560</v>
-      </c>
-      <c r="B35" s="4">
-        <v>5241</v>
-      </c>
-      <c r="C35" s="4">
-        <v>20.063700000000001</v>
-      </c>
-      <c r="D35" s="4">
-        <v>1.6013599999999999</v>
-      </c>
-      <c r="E35" s="4">
-        <v>13.2</v>
-      </c>
-      <c r="F35" s="4">
-        <v>19</v>
-      </c>
-      <c r="G35" s="4">
-        <v>20</v>
-      </c>
-      <c r="H35" s="4">
-        <v>21</v>
-      </c>
-      <c r="I35" s="4">
-        <v>25.8</v>
-      </c>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
-        <v>21206570</v>
-      </c>
-      <c r="B36" s="4">
-        <v>1521</v>
-      </c>
-      <c r="C36" s="4">
-        <v>19.788399999999999</v>
-      </c>
-      <c r="D36" s="4">
-        <v>1.3791199999999999</v>
-      </c>
-      <c r="E36" s="4">
-        <v>14</v>
-      </c>
-      <c r="F36" s="4">
-        <v>19</v>
-      </c>
-      <c r="G36" s="4">
-        <v>20</v>
-      </c>
-      <c r="H36" s="4">
-        <v>20.6</v>
-      </c>
-      <c r="I36" s="4">
-        <v>24.2</v>
-      </c>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4">
-        <v>21206600</v>
-      </c>
-      <c r="B37" s="4">
-        <v>5976</v>
-      </c>
-      <c r="C37" s="4">
-        <v>21.220600000000001</v>
-      </c>
-      <c r="D37" s="4">
-        <v>1.5958699999999999</v>
-      </c>
-      <c r="E37" s="4">
-        <v>14.8</v>
-      </c>
-      <c r="F37" s="4">
-        <v>20.2</v>
-      </c>
-      <c r="G37" s="4">
-        <v>21.2</v>
-      </c>
-      <c r="H37" s="4">
-        <v>22.2</v>
-      </c>
-      <c r="I37" s="4">
-        <v>28.2</v>
-      </c>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4">
-        <v>21206610</v>
-      </c>
-      <c r="B38" s="4">
-        <v>230</v>
-      </c>
-      <c r="C38" s="4">
-        <v>18.6052</v>
-      </c>
-      <c r="D38" s="4">
-        <v>2.0318100000000001</v>
-      </c>
-      <c r="E38" s="4">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="F38" s="4">
-        <v>17.2</v>
-      </c>
-      <c r="G38" s="4">
-        <v>18.7</v>
-      </c>
-      <c r="H38" s="4">
-        <v>19.95</v>
-      </c>
-      <c r="I38" s="4">
-        <v>25.8</v>
-      </c>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4">
-        <v>21206620</v>
-      </c>
-      <c r="B39" s="4">
-        <v>1915</v>
-      </c>
-      <c r="C39" s="4">
-        <v>21.065100000000001</v>
-      </c>
-      <c r="D39" s="4">
-        <v>1.8260400000000001</v>
-      </c>
-      <c r="E39" s="4">
-        <v>12.2</v>
-      </c>
-      <c r="F39" s="4">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="G39" s="4">
-        <v>21.2</v>
-      </c>
-      <c r="H39" s="4">
-        <v>22.2</v>
-      </c>
-      <c r="I39" s="4">
-        <v>29.6</v>
-      </c>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
-        <v>21206630</v>
-      </c>
-      <c r="B40" s="4">
-        <v>1532</v>
-      </c>
-      <c r="C40" s="4">
-        <v>20.323399999999999</v>
-      </c>
-      <c r="D40" s="4">
-        <v>1.4644999999999999</v>
-      </c>
-      <c r="E40" s="4">
-        <v>14.3</v>
-      </c>
-      <c r="F40" s="4">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="G40" s="4">
-        <v>20.2</v>
-      </c>
-      <c r="H40" s="4">
-        <v>21.2</v>
-      </c>
-      <c r="I40" s="4">
-        <v>25.8</v>
-      </c>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4">
-        <v>21206640</v>
-      </c>
-      <c r="B41" s="4">
-        <v>52</v>
-      </c>
-      <c r="C41" s="4">
-        <v>20.975000000000001</v>
-      </c>
-      <c r="D41" s="4">
-        <v>2.3904899999999998</v>
-      </c>
-      <c r="E41" s="4">
-        <v>15</v>
-      </c>
-      <c r="F41" s="4">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="G41" s="4">
-        <v>21.1</v>
-      </c>
-      <c r="H41" s="4">
-        <v>23</v>
-      </c>
-      <c r="I41" s="4">
-        <v>25.3</v>
-      </c>
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4">
-        <v>21206650</v>
-      </c>
-      <c r="B42" s="4">
-        <v>4971</v>
-      </c>
-      <c r="C42" s="4">
-        <v>15.4094</v>
-      </c>
-      <c r="D42" s="4">
-        <v>2.0037099999999999</v>
-      </c>
-      <c r="E42" s="4">
-        <v>8.4</v>
-      </c>
-      <c r="F42" s="4">
-        <v>14</v>
-      </c>
-      <c r="G42" s="4">
-        <v>15</v>
-      </c>
-      <c r="H42" s="4">
-        <v>16.8</v>
-      </c>
-      <c r="I42" s="4">
-        <v>24.2</v>
-      </c>
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4">
-        <v>21206660</v>
-      </c>
-      <c r="B43" s="4">
-        <v>2689</v>
-      </c>
-      <c r="C43" s="4">
-        <v>21.403400000000001</v>
-      </c>
-      <c r="D43" s="4">
-        <v>1.75552</v>
-      </c>
-      <c r="E43" s="4">
-        <v>15</v>
-      </c>
-      <c r="F43" s="4">
-        <v>20.3</v>
-      </c>
-      <c r="G43" s="4">
-        <v>21.4</v>
-      </c>
-      <c r="H43" s="4">
-        <v>22.4</v>
-      </c>
-      <c r="I43" s="4">
-        <v>29.4</v>
-      </c>
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
     </row>
     <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="4">
-        <v>21206670</v>
-      </c>
-      <c r="B44" s="4">
-        <v>454</v>
-      </c>
-      <c r="C44" s="4">
-        <v>21.037700000000001</v>
-      </c>
-      <c r="D44" s="4">
-        <v>1.8728</v>
-      </c>
-      <c r="E44" s="4">
-        <v>13</v>
-      </c>
-      <c r="F44" s="4">
-        <v>20</v>
-      </c>
-      <c r="G44" s="4">
-        <v>21.2</v>
-      </c>
-      <c r="H44" s="4">
-        <v>22.1</v>
-      </c>
-      <c r="I44" s="4">
-        <v>28.4</v>
-      </c>
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="4">
-        <v>21206680</v>
-      </c>
-      <c r="B45" s="4">
-        <v>694</v>
-      </c>
-      <c r="C45" s="4">
-        <v>21.433</v>
-      </c>
-      <c r="D45" s="4">
-        <v>2.6219800000000002</v>
-      </c>
-      <c r="E45" s="4">
-        <v>11</v>
-      </c>
-      <c r="F45" s="4">
-        <v>20</v>
-      </c>
-      <c r="G45" s="4">
-        <v>21.4</v>
-      </c>
-      <c r="H45" s="4">
-        <v>23.2</v>
-      </c>
-      <c r="I45" s="4">
-        <v>29.2</v>
-      </c>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="4">
-        <v>21206690</v>
-      </c>
-      <c r="B46" s="4">
-        <v>4263</v>
-      </c>
-      <c r="C46" s="4">
-        <v>21.518599999999999</v>
-      </c>
-      <c r="D46" s="4">
-        <v>1.8988799999999999</v>
-      </c>
-      <c r="E46" s="4">
-        <v>13.2</v>
-      </c>
-      <c r="F46" s="4">
-        <v>20.2</v>
-      </c>
-      <c r="G46" s="4">
-        <v>21.6</v>
-      </c>
-      <c r="H46" s="4">
-        <v>22.8</v>
-      </c>
-      <c r="I46" s="4">
-        <v>30</v>
-      </c>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4">
-        <v>21206700</v>
-      </c>
-      <c r="B47" s="4">
-        <v>21</v>
-      </c>
-      <c r="C47" s="4">
-        <v>21.433299999999999</v>
-      </c>
-      <c r="D47" s="4">
-        <v>1.59321</v>
-      </c>
-      <c r="E47" s="4">
-        <v>17.2</v>
-      </c>
-      <c r="F47" s="4">
-        <v>20.6</v>
-      </c>
-      <c r="G47" s="4">
-        <v>21.4</v>
-      </c>
-      <c r="H47" s="4">
-        <v>22</v>
-      </c>
-      <c r="I47" s="4">
-        <v>24.2</v>
-      </c>
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
     </row>
     <row r="48" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="4">
-        <v>21206970</v>
-      </c>
-      <c r="B48" s="4">
-        <v>83</v>
-      </c>
-      <c r="C48" s="4">
-        <v>20.002400000000002</v>
-      </c>
-      <c r="D48" s="4">
-        <v>1.76952</v>
-      </c>
-      <c r="E48" s="4">
-        <v>14</v>
-      </c>
-      <c r="F48" s="4">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="G48" s="4">
-        <v>20</v>
-      </c>
-      <c r="H48" s="4">
-        <v>21.15</v>
-      </c>
-      <c r="I48" s="4">
-        <v>24.2</v>
-      </c>
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
     </row>
     <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="4">
-        <v>21235010</v>
-      </c>
-      <c r="B49" s="4">
-        <v>13156</v>
-      </c>
-      <c r="C49" s="4">
-        <v>34.728099999999998</v>
-      </c>
-      <c r="D49" s="4">
-        <v>2.3422999999999998</v>
-      </c>
-      <c r="E49" s="4">
-        <v>25.4</v>
-      </c>
-      <c r="F49" s="4">
-        <v>33.200000000000003</v>
-      </c>
-      <c r="G49" s="4">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="H49" s="4">
-        <v>36.4</v>
-      </c>
-      <c r="I49" s="4">
-        <v>41.8</v>
-      </c>
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
     </row>
     <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="4">
-        <v>21255080</v>
-      </c>
-      <c r="B50" s="4">
-        <v>825</v>
-      </c>
-      <c r="C50" s="4">
-        <v>34.323599999999999</v>
-      </c>
-      <c r="D50" s="4">
-        <v>2.6095999999999999</v>
-      </c>
-      <c r="E50" s="4">
-        <v>25</v>
-      </c>
-      <c r="F50" s="4">
-        <v>32.5</v>
-      </c>
-      <c r="G50" s="4">
-        <v>34.299999999999997</v>
-      </c>
-      <c r="H50" s="4">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="I50" s="4">
-        <v>40.6</v>
-      </c>
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
     </row>
     <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="4">
-        <v>23065060</v>
-      </c>
-      <c r="B51" s="4">
-        <v>7825</v>
-      </c>
-      <c r="C51" s="4">
-        <v>18.816299999999998</v>
-      </c>
-      <c r="D51" s="4">
-        <v>1.2614300000000001</v>
-      </c>
-      <c r="E51" s="4">
-        <v>14.6</v>
-      </c>
-      <c r="F51" s="4">
-        <v>18</v>
-      </c>
-      <c r="G51" s="4">
-        <v>18.8</v>
-      </c>
-      <c r="H51" s="4">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="I51" s="4">
-        <v>23.6</v>
-      </c>
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
     </row>
     <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="4">
-        <v>23065100</v>
-      </c>
-      <c r="B52" s="4">
-        <v>7174</v>
-      </c>
-      <c r="C52" s="4">
-        <v>17.7605</v>
-      </c>
-      <c r="D52" s="4">
-        <v>1.4851300000000001</v>
-      </c>
-      <c r="E52" s="4">
-        <v>12.4</v>
-      </c>
-      <c r="F52" s="4">
-        <v>16.8</v>
-      </c>
-      <c r="G52" s="4">
-        <v>17.8</v>
-      </c>
-      <c r="H52" s="4">
-        <v>18.8</v>
-      </c>
-      <c r="I52" s="4">
-        <v>22.5</v>
-      </c>
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
     </row>
     <row r="53" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="4">
-        <v>23065120</v>
-      </c>
-      <c r="B53" s="4">
-        <v>12002</v>
-      </c>
-      <c r="C53" s="4">
-        <v>21.748999999999999</v>
-      </c>
-      <c r="D53" s="4">
-        <v>1.84398</v>
-      </c>
-      <c r="E53" s="4">
-        <v>14.6</v>
-      </c>
-      <c r="F53" s="4">
-        <v>20.6</v>
-      </c>
-      <c r="G53" s="4">
-        <v>21.8</v>
-      </c>
-      <c r="H53" s="4">
-        <v>23</v>
-      </c>
-      <c r="I53" s="4">
-        <v>28</v>
-      </c>
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
     </row>
     <row r="54" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="4">
-        <v>23065200</v>
-      </c>
-      <c r="B54" s="4">
-        <v>1653</v>
-      </c>
-      <c r="C54" s="4">
-        <v>29.2151</v>
-      </c>
-      <c r="D54" s="4">
-        <v>2.08216</v>
-      </c>
-      <c r="E54" s="4">
-        <v>21.6</v>
-      </c>
-      <c r="F54" s="4">
-        <v>27.8</v>
-      </c>
-      <c r="G54" s="4">
-        <v>29.2</v>
-      </c>
-      <c r="H54" s="4">
-        <v>30.6</v>
-      </c>
-      <c r="I54" s="4">
-        <v>36</v>
-      </c>
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
     </row>
     <row r="55" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="4">
-        <v>23125070</v>
-      </c>
-      <c r="B55" s="4">
-        <v>6979</v>
-      </c>
-      <c r="C55" s="4">
-        <v>20.629000000000001</v>
-      </c>
-      <c r="D55" s="4">
-        <v>1.7357199999999999</v>
-      </c>
-      <c r="E55" s="4">
-        <v>14.4</v>
-      </c>
-      <c r="F55" s="4">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="G55" s="4">
-        <v>20.6</v>
-      </c>
-      <c r="H55" s="4">
-        <v>21.6</v>
-      </c>
-      <c r="I55" s="4">
-        <v>27.6</v>
-      </c>
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
     </row>
     <row r="56" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="4">
-        <v>23125170</v>
-      </c>
-      <c r="B56" s="4">
-        <v>42</v>
-      </c>
-      <c r="C56" s="4">
-        <v>13.895200000000001</v>
-      </c>
-      <c r="D56" s="4">
-        <v>0.64048499999999997</v>
-      </c>
-      <c r="E56" s="4">
-        <v>12.4</v>
-      </c>
-      <c r="F56" s="4">
-        <v>13.45</v>
-      </c>
-      <c r="G56" s="4">
-        <v>13.8</v>
-      </c>
-      <c r="H56" s="4">
-        <v>14.4</v>
-      </c>
-      <c r="I56" s="4">
-        <v>15.2</v>
-      </c>
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
     </row>
     <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="4">
-        <v>24015380</v>
-      </c>
-      <c r="B57" s="4">
-        <v>3339</v>
-      </c>
-      <c r="C57" s="4">
-        <v>17.055499999999999</v>
-      </c>
-      <c r="D57" s="4">
-        <v>1.65967</v>
-      </c>
-      <c r="E57" s="4">
-        <v>11.4</v>
-      </c>
-      <c r="F57" s="4">
-        <v>15.8</v>
-      </c>
-      <c r="G57" s="4">
-        <v>17</v>
-      </c>
-      <c r="H57" s="4">
-        <v>18.2</v>
-      </c>
-      <c r="I57" s="4">
-        <v>23.4</v>
-      </c>
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
     </row>
     <row r="58" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="4">
-        <v>35025050</v>
-      </c>
-      <c r="B58" s="4">
-        <v>11836</v>
-      </c>
-      <c r="C58" s="4">
-        <v>13.7644</v>
-      </c>
-      <c r="D58" s="4">
-        <v>1.78959</v>
-      </c>
-      <c r="E58" s="4">
-        <v>7.4</v>
-      </c>
-      <c r="F58" s="4">
-        <v>12.6</v>
-      </c>
-      <c r="G58" s="4">
-        <v>13.8</v>
-      </c>
-      <c r="H58" s="4">
-        <v>15</v>
-      </c>
-      <c r="I58" s="4">
-        <v>21.2</v>
-      </c>
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
     </row>
     <row r="59" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="4">
-        <v>35025060</v>
-      </c>
-      <c r="B59" s="4">
-        <v>638</v>
-      </c>
-      <c r="C59" s="4">
-        <v>12.348000000000001</v>
-      </c>
-      <c r="D59" s="4">
-        <v>1.4916499999999999</v>
-      </c>
-      <c r="E59" s="4">
-        <v>7.6</v>
-      </c>
-      <c r="F59" s="4">
-        <v>11.4</v>
-      </c>
-      <c r="G59" s="4">
-        <v>12.3</v>
-      </c>
-      <c r="H59" s="4">
-        <v>13.35</v>
-      </c>
-      <c r="I59" s="4">
-        <v>17.2</v>
-      </c>
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
     </row>
     <row r="60" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="4">
-        <v>35035030</v>
-      </c>
-      <c r="B60" s="4">
-        <v>203</v>
-      </c>
-      <c r="C60" s="4">
-        <v>28.13</v>
-      </c>
-      <c r="D60" s="4">
-        <v>1.8930400000000001</v>
-      </c>
-      <c r="E60" s="4">
-        <v>21.6</v>
-      </c>
-      <c r="F60" s="4">
-        <v>27.2</v>
-      </c>
-      <c r="G60" s="4">
-        <v>28.2</v>
-      </c>
-      <c r="H60" s="4">
-        <v>29.2</v>
-      </c>
-      <c r="I60" s="4">
-        <v>33</v>
-      </c>
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
     </row>
     <row r="61" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="4">
-        <v>35065010</v>
-      </c>
-      <c r="B61" s="4">
-        <v>10520</v>
-      </c>
-      <c r="C61" s="4">
-        <v>24.0121</v>
-      </c>
-      <c r="D61" s="4">
-        <v>1.9998199999999999</v>
-      </c>
-      <c r="E61" s="4">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="F61" s="4">
-        <v>22.8</v>
-      </c>
-      <c r="G61" s="4">
-        <v>24.2</v>
-      </c>
-      <c r="H61" s="4">
-        <v>25.4</v>
-      </c>
-      <c r="I61" s="4">
-        <v>31.4</v>
-      </c>
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
     </row>
     <row r="62" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
@@ -41645,8 +40709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727AAFEF-2D0B-44BD-892F-1AEA56959276}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41756,16 +40820,16 @@
         <v>446.82900000000001</v>
       </c>
       <c r="D3" s="8">
-        <v>221.429</v>
+        <v>515.21500000000003</v>
       </c>
       <c r="E3" s="8">
-        <v>446.82900000000001</v>
+        <v>936.93499999999995</v>
       </c>
       <c r="F3" s="8">
-        <v>221.429</v>
+        <v>54.0593</v>
       </c>
       <c r="G3" s="8">
-        <v>446.82900000000001</v>
+        <v>93.390100000000004</v>
       </c>
       <c r="H3" s="8">
         <v>221.429</v>
@@ -41793,11 +40857,11 @@
       </c>
       <c r="P3" s="7">
         <f>+_xlfn.STDEV.S(B3,D3,F3,H3,J3,L3,N3)</f>
-        <v>3.0698954837323625E-14</v>
+        <v>136.65029498451764</v>
       </c>
       <c r="Q3" s="7">
         <f>+_xlfn.STDEV.S(C3,E3,G3,I3,K3,M3,O3)</f>
-        <v>6.139790967464725E-14</v>
+        <v>245.7826534360164</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -41811,16 +40875,16 @@
         <v>319.19</v>
       </c>
       <c r="D4" s="8">
-        <v>136.43299999999999</v>
+        <v>234.78200000000001</v>
       </c>
       <c r="E4" s="8">
-        <v>311.75299999999999</v>
+        <v>513.21600000000001</v>
       </c>
       <c r="F4" s="8">
-        <v>88.583600000000004</v>
+        <v>54.090200000000003</v>
       </c>
       <c r="G4" s="8">
-        <v>161.79499999999999</v>
+        <v>82.277600000000007</v>
       </c>
       <c r="H4" s="8">
         <v>130.54</v>
@@ -41848,11 +40912,11 @@
       </c>
       <c r="P4" s="7">
         <f t="shared" ref="P4:Q10" si="0">+_xlfn.STDEV.S(B4,D4,F4,H4,J4,L4,N4)</f>
-        <v>17.994112111995193</v>
+        <v>54.128136186240468</v>
       </c>
       <c r="Q4" s="7">
         <f t="shared" si="0"/>
-        <v>56.653356430219986</v>
+        <v>129.32866267210917</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -41866,16 +40930,16 @@
         <v>440.67099999999999</v>
       </c>
       <c r="D5" s="8">
-        <v>189.34800000000001</v>
+        <v>424.35700000000003</v>
       </c>
       <c r="E5" s="8">
-        <v>532.04300000000001</v>
+        <v>846.46199999999999</v>
       </c>
       <c r="F5" s="8">
-        <v>60.326999999999998</v>
+        <v>37.614400000000003</v>
       </c>
       <c r="G5" s="8">
-        <v>134.197</v>
+        <v>63.953000000000003</v>
       </c>
       <c r="H5" s="8">
         <v>157.197</v>
@@ -41903,11 +40967,11 @@
       </c>
       <c r="P5" s="7">
         <f t="shared" si="0"/>
-        <v>40.571268988452076</v>
+        <v>119.28944044587324</v>
       </c>
       <c r="Q5" s="7">
         <f t="shared" si="0"/>
-        <v>123.6832115123148</v>
+        <v>229.36178854699455</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -41921,16 +40985,16 @@
         <v>326.54300000000001</v>
       </c>
       <c r="D6" s="8">
-        <v>103.158</v>
+        <v>267.27100000000002</v>
       </c>
       <c r="E6" s="8">
-        <v>352.23599999999999</v>
+        <v>582.11099999999999</v>
       </c>
       <c r="F6" s="8">
-        <v>22.6723</v>
+        <v>17.400099999999998</v>
       </c>
       <c r="G6" s="8">
-        <v>49.470300000000002</v>
+        <v>31.12</v>
       </c>
       <c r="H6" s="8">
         <v>72.999499999999998</v>
@@ -41958,11 +41022,11 @@
       </c>
       <c r="P6" s="7">
         <f t="shared" si="0"/>
-        <v>27.459568670770498</v>
+        <v>82.967903201734472</v>
       </c>
       <c r="Q6" s="7">
         <f t="shared" si="0"/>
-        <v>107.37858172066456</v>
+        <v>174.14415496938165</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -41976,16 +41040,16 @@
         <v>368.5</v>
       </c>
       <c r="D7" s="8">
-        <v>177.76499999999999</v>
+        <v>283.834</v>
       </c>
       <c r="E7" s="8">
-        <v>366.86900000000003</v>
+        <v>608.29999999999995</v>
       </c>
       <c r="F7" s="8">
-        <v>169.14500000000001</v>
+        <v>67.838300000000004</v>
       </c>
       <c r="G7" s="8">
-        <v>346.72300000000001</v>
+        <v>104.04</v>
       </c>
       <c r="H7" s="8">
         <v>177.64099999999999</v>
@@ -42013,11 +41077,11 @@
       </c>
       <c r="P7" s="7">
         <f t="shared" si="0"/>
-        <v>3.5876832689209328</v>
+        <v>62.396512228447229</v>
       </c>
       <c r="Q7" s="7">
         <f t="shared" si="0"/>
-        <v>8.479127956621598</v>
+        <v>145.7037619199279</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -42031,16 +41095,16 @@
         <v>79.2684</v>
       </c>
       <c r="D8" s="8">
-        <v>31.166899999999998</v>
+        <v>75.474000000000004</v>
       </c>
       <c r="E8" s="8">
-        <v>100.21599999999999</v>
+        <v>151.80799999999999</v>
       </c>
       <c r="F8" s="8">
-        <v>4.6150399999999996</v>
+        <v>4.7691800000000004</v>
       </c>
       <c r="G8" s="8">
-        <v>15.5777</v>
+        <v>9.5927199999999999</v>
       </c>
       <c r="H8" s="8">
         <v>23.773</v>
@@ -42068,11 +41132,11 @@
       </c>
       <c r="P8" s="7">
         <f t="shared" si="0"/>
-        <v>8.1350094974943907</v>
+        <v>22.204974037815422</v>
       </c>
       <c r="Q8" s="7">
         <f t="shared" si="0"/>
-        <v>26.093330084233443</v>
+        <v>41.338038018052615</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -42086,16 +41150,16 @@
         <v>478.33800000000002</v>
       </c>
       <c r="D9" s="8">
-        <v>281.44099999999997</v>
+        <v>471.99400000000003</v>
       </c>
       <c r="E9" s="8">
-        <v>478.33800000000002</v>
+        <v>884.41800000000001</v>
       </c>
       <c r="F9" s="8">
-        <v>281.44099999999997</v>
+        <v>118.626</v>
       </c>
       <c r="G9" s="8">
-        <v>478.33800000000002</v>
+        <v>176.767</v>
       </c>
       <c r="H9" s="8">
         <v>281.44099999999997</v>
@@ -42123,11 +41187,11 @@
       </c>
       <c r="P9" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>102.23278683778037</v>
       </c>
       <c r="Q9" s="7">
         <f t="shared" si="0"/>
-        <v>6.139790967464725E-14</v>
+        <v>205.8663522777407</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -42141,16 +41205,16 @@
         <v>153.25700000000001</v>
       </c>
       <c r="D10" s="8">
-        <v>181.79400000000001</v>
+        <v>95.343500000000006</v>
       </c>
       <c r="E10" s="8">
-        <v>104.68600000000001</v>
+        <v>282.09199999999998</v>
       </c>
       <c r="F10" s="8">
-        <v>178.17699999999999</v>
+        <v>210.05699999999999</v>
       </c>
       <c r="G10" s="8">
-        <v>91.737300000000005</v>
+        <v>42.629899999999999</v>
       </c>
       <c r="H10" s="8">
         <v>181.714</v>
@@ -42178,11 +41242,11 @@
       </c>
       <c r="P10" s="7">
         <f t="shared" si="0"/>
-        <v>3.0167363001697534</v>
+        <v>36.057378223728911</v>
       </c>
       <c r="Q10" s="7">
         <f t="shared" si="0"/>
-        <v>21.630541103374306</v>
+        <v>76.628018275450998</v>
       </c>
     </row>
   </sheetData>
@@ -54339,8 +53403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E99EC5F-9AC0-41E5-914D-8354E73E468F}">
   <dimension ref="A1:Q62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
